--- a/Project Plan (Recovered).xlsx
+++ b/Project Plan (Recovered).xlsx
@@ -20,10 +20,9 @@
     <sheet name="Week 5" sheetId="6" r:id="rId6"/>
     <sheet name="week 6" sheetId="7" r:id="rId7"/>
     <sheet name="Week 7" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="week 8" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
   <si>
     <t>Requirements</t>
   </si>
@@ -411,7 +410,13 @@
     <t>started work on sqlite caching</t>
   </si>
   <si>
-    <t>still working on sqlite</t>
+    <t>working on sqlite caching, almost finished. Diffculties dynamically creating tables at run time and only reading and writing when necessary</t>
+  </si>
+  <si>
+    <t>finished sqlite caching</t>
+  </si>
+  <si>
+    <t>tested sqlite caching</t>
   </si>
 </sst>
 </file>
@@ -1893,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C5"/>
+  <dimension ref="B3:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1919,7 +1924,36 @@
         <v>42815</v>
       </c>
       <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>42816</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>42817</v>
+      </c>
+      <c r="C7" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>42818</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Project Plan (Recovered).xlsx
+++ b/Project Plan (Recovered).xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
   <si>
     <t>Requirements</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>tested sqlite caching</t>
+  </si>
+  <si>
+    <t>doing graph work on separte thread https://medium.com/@haarman.niek/a-dive-into-async-await-on-android-5a6699029aa3#.hmln6nn00</t>
   </si>
 </sst>
 </file>
@@ -1898,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C9"/>
+  <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1956,6 +1959,19 @@
         <v>122</v>
       </c>
     </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>42820</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project Plan (Recovered).xlsx
+++ b/Project Plan (Recovered).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="week 6" sheetId="7" r:id="rId7"/>
     <sheet name="Week 7" sheetId="8" r:id="rId8"/>
     <sheet name="week 8" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="126">
   <si>
     <t>Requirements</t>
   </si>
@@ -420,6 +421,12 @@
   </si>
   <si>
     <t>doing graph work on separte thread https://medium.com/@haarman.niek/a-dive-into-async-await-on-android-5a6699029aa3#.hmln6nn00</t>
+  </si>
+  <si>
+    <t>got QR code scanning fully working, needs to be tested https://code.tutsplus.com/tutorials/reading-qr-codes-using-the-mobile-vision-api--cms-24680 https://developers.google.com/vision/android/barcodes-overview</t>
+  </si>
+  <si>
+    <t>discussed with Julian the idea of having a service that checks the data for anomalies periodically and sends a notification to the device if the user is within range of the location</t>
   </si>
 </sst>
 </file>
@@ -1204,6 +1211,34 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>42821</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
@@ -1903,7 +1938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/Project Plan (Recovered).xlsx
+++ b/Project Plan (Recovered).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Week 7" sheetId="8" r:id="rId8"/>
     <sheet name="week 8" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet4" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
   <si>
     <t>Requirements</t>
   </si>
@@ -427,6 +429,18 @@
   </si>
   <si>
     <t>discussed with Julian the idea of having a service that checks the data for anomalies periodically and sends a notification to the device if the user is within range of the location</t>
+  </si>
+  <si>
+    <t>working on anomaly service</t>
+  </si>
+  <si>
+    <t>anomaly service</t>
+  </si>
+  <si>
+    <t>work on dialog for reporting</t>
+  </si>
+  <si>
+    <t>dialog for reporting</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C4"/>
+  <dimension ref="B3:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,6 +1246,167 @@
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>42822</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>42823</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>42824</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>42825</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>42826</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>42827</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>42828</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>42829</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>42830</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>42831</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>42832</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>42833</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>42834</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>42835</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>42777</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>42837</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Project Plan (Recovered).xlsx
+++ b/Project Plan (Recovered).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\FYPRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\FYPRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25590" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="week 6" sheetId="7" r:id="rId7"/>
     <sheet name="Week 7" sheetId="8" r:id="rId8"/>
     <sheet name="week 8" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet4" sheetId="12" r:id="rId12"/>
+    <sheet name="week 9" sheetId="10" r:id="rId10"/>
+    <sheet name="week 10" sheetId="11" r:id="rId11"/>
+    <sheet name="week 11" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="130">
   <si>
     <t>Requirements</t>
   </si>
@@ -73,21 +73,9 @@
     <t>Web app</t>
   </si>
   <si>
-    <t>C# web service</t>
-  </si>
-  <si>
-    <t>Set up ODBC IP21 connection</t>
-  </si>
-  <si>
-    <t>test pulling data from IP21</t>
-  </si>
-  <si>
     <t xml:space="preserve">rework </t>
   </si>
   <si>
-    <t xml:space="preserve">Set up connection and query handling to SQL </t>
-  </si>
-  <si>
     <t>SQL testing</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>get data from Node JS web service</t>
   </si>
   <si>
-    <t>get data from C# web service</t>
-  </si>
-  <si>
     <t>creation of non-expanded UI</t>
   </si>
   <si>
@@ -131,9 +116,6 @@
   </si>
   <si>
     <t>find suitable graphing library</t>
-  </si>
-  <si>
-    <t>display current data from IP21</t>
   </si>
   <si>
     <t>display historical data in graph form</t>
@@ -441,6 +423,24 @@
   </si>
   <si>
     <t>dialog for reporting</t>
+  </si>
+  <si>
+    <t>Submitting anomaly resolution to web service</t>
+  </si>
+  <si>
+    <t>displaying anomaly notification on home screen</t>
+  </si>
+  <si>
+    <t>display current data from SQL</t>
+  </si>
+  <si>
+    <t>Node JS web service</t>
+  </si>
+  <si>
+    <t>Set up SQL connection</t>
+  </si>
+  <si>
+    <t>test pulling data from SQL</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,12 +481,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,11 +497,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -832,20 +825,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F39"/>
+  <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,15 +850,15 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -873,15 +866,15 @@
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -889,16 +882,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <f>SUM(B4:B39)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <f>SUM(B4:B37)</f>
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -906,9 +899,9 @@
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -916,19 +909,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -936,9 +929,9 @@
         <v>1</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -946,278 +939,258 @@
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
       <c r="E12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <v>0.2</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6"/>
       <c r="E13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>0.8</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>0.2</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B18">
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>0.8</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B19">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
-      </c>
-      <c r="B20">
-        <v>0.75</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>0.75</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>30</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>33</v>
       </c>
       <c r="B33">
         <v>0.5</v>
       </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>0.5</v>
-      </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
-      </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39">
         <v>7</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1233,67 +1206,67 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="7">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>42821</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
         <v>42822</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
         <v>42823</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
         <v>42824</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
         <v>42825</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
         <v>42826</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
         <v>42827</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1309,66 +1282,66 @@
       <selection activeCell="B10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="7">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>42828</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
         <v>42829</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
         <v>42830</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
         <v>42831</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
         <v>42832</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
         <v>42833</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
         <v>42834</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1377,36 +1350,73 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C5"/>
+  <dimension ref="B3:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="7">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>42835</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
         <v>42777</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
         <v>42837</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>42838</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>42839</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>42840</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>42841</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1422,141 +1432,141 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="152.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="152.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>42765</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>42766</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>42767</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>42768</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="5">
-        <v>42767</v>
-      </c>
-      <c r="D12" s="4" t="s">
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>42769</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <v>42770</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D13" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D14" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="5">
-        <v>42768</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D16" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="5">
-        <v>42769</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="5">
-        <v>42770</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="9" t="s">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1574,96 +1584,96 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="100.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="100.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="5">
+        <v>42772</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>42773</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>42774</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="6">
-        <v>42772</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D3" s="4" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <v>42775</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <v>42776</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
+        <v>42777</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D4" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <v>42778</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6">
-        <v>42773</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="6">
-        <v>42774</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="6">
-        <v>42775</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="6">
-        <v>42776</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="6">
-        <v>42777</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="6">
-        <v>42778</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D13" s="9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1681,72 +1691,72 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="5">
+        <v>42779</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="5">
+        <v>42780</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="5">
+        <v>42781</v>
+      </c>
+      <c r="D4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="6">
-        <v>42779</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>42782</v>
+      </c>
+      <c r="D5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="6">
-        <v>42780</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="6">
-        <v>42781</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6">
-        <v>42782</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
         <v>42783</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
         <v>42784</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
         <v>42785</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1763,79 +1773,79 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="77.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="6">
+    <row r="2" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="5">
         <v>42786</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>42787</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>42788</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>42789</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
-        <v>42787</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
-        <v>42788</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
-        <v>42789</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
         <v>42790</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1852,96 +1862,96 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="6">
         <v>42793</v>
       </c>
       <c r="C2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>42794</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>42795</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>42796</v>
+      </c>
+      <c r="C7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>42797</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>42798</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>42799</v>
+      </c>
+      <c r="C10" t="s">
         <v>90</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
-        <v>42794</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
-        <v>42795</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
-        <v>42796</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
-        <v>42797</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
-        <v>42798</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D13" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
-        <v>42799</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1957,71 +1967,71 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="7">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="6">
         <v>42772</v>
       </c>
       <c r="C2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>42773</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>42774</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>42775</v>
+      </c>
+      <c r="C8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="7">
-        <v>42773</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>42776</v>
+      </c>
+      <c r="C10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
-        <v>42774</v>
-      </c>
-      <c r="C7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
-        <v>42775</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
-        <v>42776</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2038,70 +2048,70 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="7">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>42807</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
         <v>42808</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
         <v>42809</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
         <v>42810</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
         <v>42811</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
         <v>42812</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
         <v>42813</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2117,69 +2127,69 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="7">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>42814</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
         <v>42815</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
         <v>42816</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
         <v>42817</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
         <v>42818</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
         <v>42819</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
         <v>42820</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Project Plan (Recovered).xlsx
+++ b/Project Plan (Recovered).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\FYPRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\FYPRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25590" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="week 9" sheetId="10" r:id="rId10"/>
     <sheet name="week 10" sheetId="11" r:id="rId11"/>
     <sheet name="week 11" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="151">
   <si>
     <t>Requirements</t>
   </si>
@@ -317,9 +318,6 @@
     <t>splitting received locations into north, south, east and west</t>
   </si>
   <si>
-    <t>possible battery drain issue</t>
-  </si>
-  <si>
     <t>work on report</t>
   </si>
   <si>
@@ -368,9 +366,6 @@
     <t>Location data plotted on graph</t>
   </si>
   <si>
-    <t>Test pulling data and displaying graph</t>
-  </si>
-  <si>
     <t>Work on report</t>
   </si>
   <si>
@@ -441,6 +436,75 @@
   </si>
   <si>
     <t>test pulling data from SQL</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>display locations already stored in the database</t>
+  </si>
+  <si>
+    <t>click on location and display information of location</t>
+  </si>
+  <si>
+    <t>double click should show create new location dialog</t>
+  </si>
+  <si>
+    <t>should be able to save a new location</t>
+  </si>
+  <si>
+    <t>should be able to edit the location</t>
+  </si>
+  <si>
+    <t>should be able to delete a location</t>
+  </si>
+  <si>
+    <t>when the app is opened the camera should be displayed</t>
+  </si>
+  <si>
+    <t>camera should still be displayed when app is closed and re opened</t>
+  </si>
+  <si>
+    <t>should aquire GPS and get current location when app is opened</t>
+  </si>
+  <si>
+    <t>GPS should go off when app is closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should get the list of nearby locations </t>
+  </si>
+  <si>
+    <t>convert json result to java classes</t>
+  </si>
+  <si>
+    <t>compass reading should change as device is rotated</t>
+  </si>
+  <si>
+    <t>Correct value for North</t>
+  </si>
+  <si>
+    <t>Correct value for South</t>
+  </si>
+  <si>
+    <t>Correct value for East</t>
+  </si>
+  <si>
+    <t>Correct value for West</t>
+  </si>
+  <si>
+    <t>Test pulling data, displaying graph and ui</t>
+  </si>
+  <si>
+    <t>UI displays correctly</t>
+  </si>
+  <si>
+    <t>Work on Report</t>
+  </si>
+  <si>
+    <t>Web app bug fixing</t>
   </si>
 </sst>
 </file>
@@ -497,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -511,6 +575,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,18 +895,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="52.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,12 +921,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -874,7 +942,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -891,7 +959,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -901,7 +969,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -911,7 +979,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -921,7 +989,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -931,7 +999,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -941,17 +1009,17 @@
       <c r="C10" s="2"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -962,9 +1030,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -975,7 +1043,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -985,7 +1053,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -995,12 +1063,12 @@
       <c r="C15" s="2"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1010,7 +1078,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1088,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1030,7 +1098,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1039,7 +1107,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1048,7 +1116,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1057,7 +1125,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1066,7 +1134,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1075,7 +1143,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1084,7 +1152,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1093,7 +1161,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1102,7 +1170,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1111,16 +1179,16 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1129,7 +1197,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1138,7 +1206,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1147,7 +1215,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1156,7 +1224,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1165,7 +1233,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1174,7 +1242,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1183,7 +1251,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1206,46 +1274,46 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>42821</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>42822</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>42823</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>42824</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>42825</v>
       </c>
@@ -1253,7 +1321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>42826</v>
       </c>
@@ -1261,12 +1329,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>42827</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1282,25 +1350,25 @@
       <selection activeCell="B10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>42828</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>42829</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>42830</v>
       </c>
@@ -1308,7 +1376,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>42831</v>
       </c>
@@ -1316,31 +1384,31 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>42832</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>42833</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>42834</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
     </row>
   </sheetData>
@@ -1353,20 +1421,20 @@
   <dimension ref="B3:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>42835</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>42777</v>
       </c>
@@ -1374,15 +1442,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>42837</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>42838</v>
       </c>
@@ -1390,33 +1458,78 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>42839</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>42840</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>42841</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="6">
+        <v>42842</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>42843</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>42844</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1428,24 +1541,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="152.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="152.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1457,7 +1570,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1465,7 +1578,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1473,7 +1586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1481,12 +1594,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1497,7 +1610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +1618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1513,12 +1626,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
         <v>42767</v>
       </c>
@@ -1526,17 +1639,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
         <v>42768</v>
       </c>
@@ -1544,12 +1657,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
         <v>42769</v>
       </c>
@@ -1557,7 +1670,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
         <v>42770</v>
       </c>
@@ -1565,10 +1678,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="8" t="s">
-        <v>8</v>
-      </c>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1578,69 +1689,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="100.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="100.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="5">
         <v>42772</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="5">
         <v>42773</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>42774</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D8" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <v>42775</v>
       </c>
@@ -1648,7 +1790,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <v>42776</v>
       </c>
@@ -1656,7 +1798,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>42777</v>
       </c>
@@ -1664,7 +1806,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <v>42778</v>
       </c>
@@ -1672,8 +1814,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="8" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1685,65 +1827,88 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="5">
         <v>42779</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C3" s="5">
         <v>42780</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C4" s="5">
         <v>42781</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="5">
         <v>42782</v>
       </c>
       <c r="D5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <v>42783</v>
       </c>
       <c r="D6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>42784</v>
       </c>
@@ -1751,12 +1916,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <v>42785</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>92</v>
+      <c r="D8" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1767,36 +1932,51 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="77.42578125" customWidth="1"/>
+    <col min="3" max="3" width="77.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>42786</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>42787</v>
       </c>
@@ -1804,12 +1984,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>42788</v>
       </c>
@@ -1817,12 +1997,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>42789</v>
       </c>
@@ -1830,12 +2010,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>42790</v>
       </c>
@@ -1843,9 +2023,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>93</v>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1856,18 +2036,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G13"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="6">
         <v>42793</v>
       </c>
@@ -1875,87 +2056,115 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>42794</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>42795</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>42796</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>42797</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>42798</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>42799</v>
       </c>
       <c r="C10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1967,71 +2176,71 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="6">
         <v>42772</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>42773</v>
       </c>
       <c r="C3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>42774</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>42775</v>
       </c>
       <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>42776</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2048,57 +2257,57 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>42807</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>42808</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>42809</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>42810</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>42811</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>42812</v>
       </c>
@@ -2106,7 +2315,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>42813</v>
       </c>
@@ -2127,22 +2336,22 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>42814</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>42815</v>
       </c>
@@ -2150,7 +2359,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>42816</v>
       </c>
@@ -2158,38 +2367,38 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>42817</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>42818</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>42819</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>42820</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
